--- a/01_To_Process/Upload_Me.xlsx
+++ b/01_To_Process/Upload_Me.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
